--- a/SxE_res_lin_comp_formatted.xlsx
+++ b/SxE_res_lin_comp_formatted.xlsx
@@ -456,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -571,6 +571,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -616,12 +677,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -667,37 +741,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -997,7 +1041,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,15 +1050,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1023,6 +1067,7 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1077,7 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
@@ -1062,7 +1107,7 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4">
@@ -1074,7 +1119,7 @@
       <c r="D4">
         <v>110.238857043723</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>4.7205840543587302E-19</v>
       </c>
       <c r="F4">
@@ -1091,7 +1136,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -1103,7 +1148,7 @@
       <c r="D5">
         <v>7.3938791009312599</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>7.4390199881356001E-3</v>
       </c>
       <c r="F5">
@@ -1119,8 +1164,8 @@
         <v>4.7532407391916503E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6">
@@ -1132,7 +1177,7 @@
       <c r="D6">
         <v>6.4152756761002196</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>9.6242858513707395E-5</v>
       </c>
       <c r="F6">
@@ -1148,37 +1193,37 @@
         <v>0.91236822706482101</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>0.10197909958731401</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>0.55404415717273103</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>0.69640955931731496</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.38522553403352899</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>1.9372466984225101</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>0.108052301453702</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8">
@@ -1190,7 +1235,7 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F8">
@@ -1220,7 +1265,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B10">
@@ -1232,7 +1277,7 @@
       <c r="D10">
         <v>8.24387823173722E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>0.77451445439573796</v>
       </c>
       <c r="F10">
@@ -1249,7 +1294,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B11">
@@ -1261,7 +1306,7 @@
       <c r="D11">
         <v>0.38461105700612302</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>0.53632169185256695</v>
       </c>
       <c r="F11">
@@ -1277,8 +1322,8 @@
         <v>4.5063623944135399E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12">
@@ -1290,7 +1335,7 @@
       <c r="D12">
         <v>17.386247099435799</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>2.8192531493437601E-11</v>
       </c>
       <c r="F12">
@@ -1306,37 +1351,37 @@
         <v>0.98558467547499296</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>8.1705203032890896</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>3.2447850277247401</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>1.4452570603150999E-2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>2.60165722523878</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>4</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>1.2180203373271501</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <v>0.30678174815347697</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B14">
@@ -1348,7 +1393,7 @@
       <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F14">
@@ -1378,7 +1423,7 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1390,7 +1435,7 @@
       <c r="D16">
         <v>0.66819109227481699</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>0.41517859937172202</v>
       </c>
       <c r="F16">
@@ -1407,7 +1452,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1419,7 +1464,7 @@
       <c r="D17">
         <v>0.168523337672523</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>0.68210332492077796</v>
       </c>
       <c r="F17">
@@ -1435,8 +1480,8 @@
         <v>9.9957779470335198E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1448,7 +1493,7 @@
       <c r="D18">
         <v>25.640441081453901</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="7">
         <v>1.13130618983438E-15</v>
       </c>
       <c r="F18">
@@ -1464,37 +1509,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>10.8796947284296</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>8.7594961262215794</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="8">
         <v>2.7140357868323998E-6</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>1.0770810906319901</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>4</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>0.68089042025705604</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>0.60641020685722502</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1506,7 +1551,7 @@
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F20">
@@ -1536,7 +1581,7 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B22">
@@ -1548,7 +1593,7 @@
       <c r="D22">
         <v>4.8615941636211799</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <v>3.0407224247677601E-2</v>
       </c>
       <c r="F22">
@@ -1565,7 +1610,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B23">
@@ -1577,7 +1622,7 @@
       <c r="D23">
         <v>0.98891314840152</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>0.32308318011280501</v>
       </c>
       <c r="F23">
@@ -1593,8 +1638,8 @@
         <v>0.26537346950683399</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B24">
@@ -1606,7 +1651,7 @@
       <c r="D24">
         <v>3.9289190117662098</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>2.3673993217173998E-2</v>
       </c>
       <c r="F24">
@@ -1622,37 +1667,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>0.66413423275852801</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>2</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>0.15409484570477</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <v>0.85745102154256703</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>2.1138895421175299</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>2</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>0.26228574228877899</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <v>0.76996693635485802</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B26">
@@ -1664,7 +1709,7 @@
       <c r="D26" t="s">
         <v>9</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F26">
@@ -1694,7 +1739,7 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B28">
@@ -1706,7 +1751,7 @@
       <c r="D28">
         <v>2.2279129982675001</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="5">
         <v>0.139570746502619</v>
       </c>
       <c r="F28">
@@ -1723,7 +1768,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B29">
@@ -1735,7 +1780,7 @@
       <c r="D29">
         <v>0.44211094762005199</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="5">
         <v>0.50806654447605204</v>
       </c>
       <c r="F29">
@@ -1751,8 +1796,8 @@
         <v>0.31276876325924302</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B30">
@@ -1764,7 +1809,7 @@
       <c r="D30">
         <v>1.4498124066179601</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="5">
         <v>0.24086611761427301</v>
       </c>
       <c r="F30">
@@ -1780,37 +1825,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>3.02952367767648</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>2</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>0.40734094865989401</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
         <v>0.66682450328179399</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>3.7911756550955702</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>2</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>0.400969128878711</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="4">
         <v>0.67104309770496495</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B32">
@@ -1822,7 +1867,7 @@
       <c r="D32" t="s">
         <v>9</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F32">
@@ -1849,7 +1894,7 @@
     <mergeCell ref="A15:I15"/>
   </mergeCells>
   <conditionalFormatting sqref="E2 I2 I4:I8 E4:E8 E10:E14 I10:I14 I28:I32 E28:E32 I22:I26 E22:E26 I16:I20 E16:E20">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
